--- a/data_raw_thang/data_ecom_t11.xlsx
+++ b/data_raw_thang/data_ecom_t11.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ipython_file\data_raw_thang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D593AF67-3BE6-4AB7-83C4-105047B138D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7A8BB8-3E0A-4B37-A80A-690EF6148BCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9924"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9924" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Embed of PO _ Theo dõi đơn hàng" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Embed of PO _ Theo dõi đơn hàng'!$A$1:$B$1658</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Embed of PO _ Theo dõi đơn hàng'!$A$1:$B$1653</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="1765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3306" uniqueCount="1765">
   <si>
     <t>DH3-1122-02296</t>
   </si>
@@ -5323,7 +5323,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -6163,10 +6163,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1658"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B1653"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1622" workbookViewId="0">
+      <selection activeCell="J1643" sqref="J1643"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -18680,23 +18682,23 @@
     </row>
     <row r="1564" spans="1:2">
       <c r="A1564" t="s">
-        <v>373</v>
+        <v>1671</v>
       </c>
       <c r="B1564" t="s">
-        <v>69</v>
+        <v>186</v>
       </c>
     </row>
     <row r="1565" spans="1:2">
       <c r="A1565" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="B1565" t="s">
-        <v>186</v>
+        <v>597</v>
       </c>
     </row>
     <row r="1566" spans="1:2">
       <c r="A1566" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B1566" t="s">
         <v>597</v>
@@ -18704,39 +18706,39 @@
     </row>
     <row r="1567" spans="1:2">
       <c r="A1567" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B1567" t="s">
-        <v>597</v>
+        <v>395</v>
       </c>
     </row>
     <row r="1568" spans="1:2">
       <c r="A1568" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B1568" t="s">
-        <v>395</v>
+        <v>301</v>
       </c>
     </row>
     <row r="1569" spans="1:2">
       <c r="A1569" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B1569" t="s">
-        <v>301</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1570" spans="1:2">
       <c r="A1570" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B1570" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="1571" spans="1:2">
       <c r="A1571" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B1571" t="s">
         <v>159</v>
@@ -18744,135 +18746,135 @@
     </row>
     <row r="1572" spans="1:2">
       <c r="A1572" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B1572" t="s">
-        <v>159</v>
+        <v>744</v>
       </c>
     </row>
     <row r="1573" spans="1:2">
       <c r="A1573" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B1573" t="s">
-        <v>744</v>
+        <v>345</v>
       </c>
     </row>
     <row r="1574" spans="1:2">
       <c r="A1574" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B1574" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
     </row>
     <row r="1575" spans="1:2">
       <c r="A1575" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B1575" t="s">
-        <v>308</v>
+        <v>135</v>
       </c>
     </row>
     <row r="1576" spans="1:2">
       <c r="A1576" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B1576" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
     </row>
     <row r="1577" spans="1:2">
       <c r="A1577" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B1577" t="s">
-        <v>203</v>
+        <v>308</v>
       </c>
     </row>
     <row r="1578" spans="1:2">
       <c r="A1578" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B1578" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1579" spans="1:2">
       <c r="A1579" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B1579" t="s">
-        <v>21</v>
+        <v>427</v>
       </c>
     </row>
     <row r="1580" spans="1:2">
       <c r="A1580" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B1580" t="s">
-        <v>427</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1581" spans="1:2">
       <c r="A1581" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B1581" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
     </row>
     <row r="1582" spans="1:2">
       <c r="A1582" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="B1582" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
     </row>
     <row r="1583" spans="1:2">
       <c r="A1583" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B1583" t="s">
-        <v>203</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1584" spans="1:2">
       <c r="A1584" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B1584" t="s">
-        <v>1208</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1585" spans="1:2">
       <c r="A1585" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B1585" t="s">
-        <v>120</v>
+        <v>497</v>
       </c>
     </row>
     <row r="1586" spans="1:2">
       <c r="A1586" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B1586" t="s">
-        <v>497</v>
+        <v>541</v>
       </c>
     </row>
     <row r="1587" spans="1:2">
       <c r="A1587" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B1587" t="s">
-        <v>541</v>
+        <v>782</v>
       </c>
     </row>
     <row r="1588" spans="1:2">
       <c r="A1588" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B1588" t="s">
         <v>782</v>
@@ -18880,95 +18882,95 @@
     </row>
     <row r="1589" spans="1:2">
       <c r="A1589" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B1589" t="s">
-        <v>782</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1590" spans="1:2">
       <c r="A1590" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B1590" t="s">
-        <v>23</v>
+        <v>308</v>
       </c>
     </row>
     <row r="1591" spans="1:2">
       <c r="A1591" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B1591" t="s">
-        <v>308</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1592" spans="1:2">
       <c r="A1592" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B1592" t="s">
-        <v>595</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1593" spans="1:2">
       <c r="A1593" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B1593" t="s">
-        <v>1208</v>
+        <v>186</v>
       </c>
     </row>
     <row r="1594" spans="1:2">
       <c r="A1594" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B1594" t="s">
-        <v>186</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1595" spans="1:2">
       <c r="A1595" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B1595" t="s">
-        <v>595</v>
+        <v>805</v>
       </c>
     </row>
     <row r="1596" spans="1:2">
       <c r="A1596" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B1596" t="s">
-        <v>805</v>
+        <v>541</v>
       </c>
     </row>
     <row r="1597" spans="1:2">
       <c r="A1597" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B1597" t="s">
-        <v>541</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1598" spans="1:2">
       <c r="A1598" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B1598" t="s">
-        <v>272</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1599" spans="1:2">
       <c r="A1599" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B1599" t="s">
-        <v>75</v>
+        <v>427</v>
       </c>
     </row>
     <row r="1600" spans="1:2">
       <c r="A1600" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B1600" t="s">
         <v>427</v>
@@ -18976,79 +18978,79 @@
     </row>
     <row r="1601" spans="1:2">
       <c r="A1601" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B1601" t="s">
-        <v>427</v>
+        <v>555</v>
       </c>
     </row>
     <row r="1602" spans="1:2">
       <c r="A1602" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B1602" t="s">
-        <v>555</v>
+        <v>782</v>
       </c>
     </row>
     <row r="1603" spans="1:2">
       <c r="A1603" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B1603" t="s">
-        <v>782</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1604" spans="1:2">
       <c r="A1604" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B1604" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1605" spans="1:2">
       <c r="A1605" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B1605" t="s">
-        <v>151</v>
+        <v>541</v>
       </c>
     </row>
     <row r="1606" spans="1:2">
       <c r="A1606" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B1606" t="s">
-        <v>541</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1607" spans="1:2">
       <c r="A1607" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B1607" t="s">
-        <v>151</v>
+        <v>301</v>
       </c>
     </row>
     <row r="1608" spans="1:2">
       <c r="A1608" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B1608" t="s">
-        <v>301</v>
+        <v>395</v>
       </c>
     </row>
     <row r="1609" spans="1:2">
       <c r="A1609" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B1609" t="s">
-        <v>395</v>
+        <v>301</v>
       </c>
     </row>
     <row r="1610" spans="1:2">
       <c r="A1610" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B1610" t="s">
         <v>301</v>
@@ -19056,7 +19058,7 @@
     </row>
     <row r="1611" spans="1:2">
       <c r="A1611" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B1611" t="s">
         <v>301</v>
@@ -19064,7 +19066,7 @@
     </row>
     <row r="1612" spans="1:2">
       <c r="A1612" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B1612" t="s">
         <v>301</v>
@@ -19072,7 +19074,7 @@
     </row>
     <row r="1613" spans="1:2">
       <c r="A1613" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B1613" t="s">
         <v>301</v>
@@ -19080,7 +19082,7 @@
     </row>
     <row r="1614" spans="1:2">
       <c r="A1614" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B1614" t="s">
         <v>301</v>
@@ -19088,7 +19090,7 @@
     </row>
     <row r="1615" spans="1:2">
       <c r="A1615" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B1615" t="s">
         <v>301</v>
@@ -19096,7 +19098,7 @@
     </row>
     <row r="1616" spans="1:2">
       <c r="A1616" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B1616" t="s">
         <v>301</v>
@@ -19104,95 +19106,95 @@
     </row>
     <row r="1617" spans="1:2">
       <c r="A1617" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B1617" t="s">
-        <v>301</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1618" spans="1:2">
       <c r="A1618" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B1618" t="s">
-        <v>5</v>
+        <v>744</v>
       </c>
     </row>
     <row r="1619" spans="1:2">
       <c r="A1619" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B1619" t="s">
-        <v>744</v>
+        <v>419</v>
       </c>
     </row>
     <row r="1620" spans="1:2">
       <c r="A1620" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B1620" t="s">
-        <v>419</v>
+        <v>167</v>
       </c>
     </row>
     <row r="1621" spans="1:2">
       <c r="A1621" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B1621" t="s">
-        <v>167</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1622" spans="1:2">
       <c r="A1622" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B1622" t="s">
-        <v>3</v>
+        <v>133</v>
       </c>
     </row>
     <row r="1623" spans="1:2">
       <c r="A1623" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B1623" t="s">
-        <v>133</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1624" spans="1:2">
       <c r="A1624" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B1624" t="s">
-        <v>1763</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1625" spans="1:2">
       <c r="A1625" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B1625" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1626" spans="1:2">
       <c r="A1626" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B1626" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="1627" spans="1:2">
       <c r="A1627" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B1627" t="s">
-        <v>167</v>
+        <v>597</v>
       </c>
     </row>
     <row r="1628" spans="1:2">
       <c r="A1628" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B1628" t="s">
         <v>597</v>
@@ -19200,246 +19202,206 @@
     </row>
     <row r="1629" spans="1:2">
       <c r="A1629" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B1629" t="s">
-        <v>597</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1630" spans="1:2">
       <c r="A1630" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B1630" t="s">
-        <v>23</v>
+        <v>782</v>
       </c>
     </row>
     <row r="1631" spans="1:2">
       <c r="A1631" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B1631" t="s">
-        <v>782</v>
+        <v>203</v>
       </c>
     </row>
     <row r="1632" spans="1:2">
       <c r="A1632" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B1632" t="s">
-        <v>203</v>
+        <v>308</v>
       </c>
     </row>
     <row r="1633" spans="1:2">
       <c r="A1633" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B1633" t="s">
-        <v>308</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1634" spans="1:2">
       <c r="A1634" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B1634" t="s">
-        <v>36</v>
+        <v>308</v>
       </c>
     </row>
     <row r="1635" spans="1:2">
       <c r="A1635" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B1635" t="s">
-        <v>308</v>
+        <v>744</v>
       </c>
     </row>
     <row r="1636" spans="1:2">
       <c r="A1636" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B1636" t="s">
-        <v>744</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1637" spans="1:2">
       <c r="A1637" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B1637" t="s">
-        <v>50</v>
+        <v>541</v>
       </c>
     </row>
     <row r="1638" spans="1:2">
       <c r="A1638" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="B1638" t="s">
-        <v>541</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1639" spans="1:2">
       <c r="A1639" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B1639" t="s">
-        <v>272</v>
+        <v>744</v>
       </c>
     </row>
     <row r="1640" spans="1:2">
       <c r="A1640" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B1640" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
     </row>
     <row r="1641" spans="1:2">
       <c r="A1641" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B1641" t="s">
-        <v>756</v>
+        <v>308</v>
       </c>
     </row>
     <row r="1642" spans="1:2">
       <c r="A1642" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B1642" t="s">
-        <v>308</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1643" spans="1:2">
       <c r="A1643" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="B1643" t="s">
-        <v>1750</v>
+        <v>203</v>
       </c>
     </row>
     <row r="1644" spans="1:2">
       <c r="A1644" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B1644" t="s">
-        <v>203</v>
+        <v>744</v>
       </c>
     </row>
     <row r="1645" spans="1:2">
       <c r="A1645" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B1645" t="s">
-        <v>744</v>
+        <v>419</v>
       </c>
     </row>
     <row r="1646" spans="1:2">
       <c r="A1646" t="s">
-        <v>1600</v>
+        <v>1754</v>
       </c>
       <c r="B1646" t="s">
-        <v>151</v>
+        <v>419</v>
       </c>
     </row>
     <row r="1647" spans="1:2">
       <c r="A1647" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="B1647" t="s">
-        <v>419</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1648" spans="1:2">
       <c r="A1648" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="B1648" t="s">
-        <v>419</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1649" spans="1:2">
       <c r="A1649" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="B1649" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1650" spans="1:2">
       <c r="A1650" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="B1650" t="s">
-        <v>69</v>
+        <v>308</v>
       </c>
     </row>
     <row r="1651" spans="1:2">
       <c r="A1651" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="B1651" t="s">
-        <v>151</v>
+        <v>242</v>
       </c>
     </row>
     <row r="1652" spans="1:2">
       <c r="A1652" t="s">
-        <v>1291</v>
+        <v>1760</v>
       </c>
       <c r="B1652" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="1653" spans="1:2">
       <c r="A1653" t="s">
-        <v>1758</v>
+        <v>1761</v>
       </c>
       <c r="B1653" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="1654" spans="1:2">
-      <c r="A1654" t="s">
-        <v>1759</v>
-      </c>
-      <c r="B1654" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="1655" spans="1:2">
-      <c r="A1655" t="s">
-        <v>1756</v>
-      </c>
-      <c r="B1655" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="1656" spans="1:2">
-      <c r="A1656" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B1656" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="1657" spans="1:2">
-      <c r="A1657" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B1657" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="1658" spans="1:2">
-      <c r="A1658" t="s">
-        <v>1761</v>
-      </c>
-      <c r="B1658" t="s">
         <v>128</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1658"/>
+  <autoFilter ref="A1:B1653" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
